--- a/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1128285-2F64-45A4-9BC5-2F7BBCE9CC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC08104-E466-49AF-9A99-F496A608C3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6BEC0985-2DF7-4204-BE7F-88948E678C91}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B4396D1-3E03-4DD6-BE96-08C7739C157D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="120">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -230,163 +230,175 @@
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,54%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,46%</t>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>99,35%</t>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>0,51%</t>
   </si>
   <si>
     <t>99,98%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
 </sst>
 </file>
@@ -798,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B04AD48-7D02-407B-8260-E12EFCD37F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443775C1-9AD3-4B59-8980-908B8515700F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1549,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0273D13F-B79D-4B2C-8048-5714BC6D8C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA401A1-5362-49E5-8F8D-2BCC18900D9C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2300,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C5BF62-4404-4175-9B4D-F704D46E7957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7319DD-B376-42D2-9E4C-DB47F956B9BE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3051,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89FB37A-7E7E-4513-9A7C-9CCA3B72457B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49559128-01B6-46DA-B020-26D1F94CA084}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3333,10 +3345,10 @@
         <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3345,13 +3357,13 @@
         <v>8988</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3366,7 +3378,7 @@
         <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,28 +3393,28 @@
         <v>2155139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>2905</v>
       </c>
       <c r="I8" s="7">
-        <v>2240532</v>
+        <v>2240533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>4886</v>
@@ -3414,7 +3426,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>53</v>
@@ -3444,7 +3456,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3488,10 +3500,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3503,10 +3515,10 @@
         <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3515,13 +3527,13 @@
         <v>3644</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,10 +3551,10 @@
         <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
@@ -3551,13 +3563,13 @@
         <v>711570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>1676</v>
@@ -3566,13 +3578,13 @@
         <v>1383282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3652,13 @@
         <v>23123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -3655,13 +3667,13 @@
         <v>64776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
@@ -3670,13 +3682,13 @@
         <v>87899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,16 +3700,16 @@
         <v>3324</v>
       </c>
       <c r="D14" s="7">
-        <v>3353572</v>
+        <v>3353571</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>5229</v>
@@ -3706,28 +3718,28 @@
         <v>3734584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>8553</v>
       </c>
       <c r="N14" s="7">
-        <v>7088156</v>
+        <v>7088155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3751,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3769,7 +3781,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC08104-E466-49AF-9A99-F496A608C3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{619993B5-625C-446F-BCC8-DAF1C004144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B4396D1-3E03-4DD6-BE96-08C7739C157D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3893365-2F79-4220-8800-7045BCA6D431}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -191,7 +191,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Población mayor de 65 años con alguna caída en el último año en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población mayor de 65 años con alguna caída en el último año en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443775C1-9AD3-4B59-8980-908B8515700F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4078696E-734E-4CD0-98F9-21507A482ABA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1137,7 +1137,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1188,7 +1188,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1447,7 +1447,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1477,7 +1477,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1498,7 +1498,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1528,7 +1528,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA401A1-5362-49E5-8F8D-2BCC18900D9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CBF259-9B60-455B-96A0-07A8904830DB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2312,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7319DD-B376-42D2-9E4C-DB47F956B9BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA53E-38EF-40DB-A0D5-4A22C93226D3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3063,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49559128-01B6-46DA-B020-26D1F94CA084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6239F7B-6FFC-4451-ABF0-D571C486662B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{619993B5-625C-446F-BCC8-DAF1C004144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66447674-71E4-4B4C-BD0C-E5A2FFCDAD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3893365-2F79-4220-8800-7045BCA6D431}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74B03062-0546-47F4-B895-587D03E64290}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="116">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -230,175 +230,163 @@
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,16%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
 </sst>
 </file>
@@ -810,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4078696E-734E-4CD0-98F9-21507A482ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9867A29F-45F8-44D0-ABDC-41AA3AB27B2F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1137,7 +1125,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1188,7 +1176,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1447,7 +1435,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1477,7 +1465,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1498,7 +1486,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1528,7 +1516,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1561,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CBF259-9B60-455B-96A0-07A8904830DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F630C8-FB36-41BD-AE5A-D35616E634C4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2312,7 +2300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970CA53E-38EF-40DB-A0D5-4A22C93226D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B56FF4-F901-4DA9-B201-B214300B53AD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3063,7 +3051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6239F7B-6FFC-4451-ABF0-D571C486662B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B45982-BFEB-42A6-8C91-24822B6B3BE2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3345,10 +3333,10 @@
         <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3357,13 +3345,13 @@
         <v>8988</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3378,7 +3366,7 @@
         <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,28 +3381,28 @@
         <v>2155139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>2905</v>
       </c>
       <c r="I8" s="7">
-        <v>2240533</v>
+        <v>2240532</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>4886</v>
@@ -3426,7 +3414,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>53</v>
@@ -3456,7 +3444,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3500,10 +3488,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3515,10 +3503,10 @@
         <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3527,13 +3515,13 @@
         <v>3644</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,10 +3539,10 @@
         <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
@@ -3563,13 +3551,13 @@
         <v>711570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>1676</v>
@@ -3578,13 +3566,13 @@
         <v>1383282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3640,13 @@
         <v>23123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -3667,13 +3655,13 @@
         <v>64776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
@@ -3682,13 +3670,13 @@
         <v>87899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,16 +3688,16 @@
         <v>3324</v>
       </c>
       <c r="D14" s="7">
-        <v>3353571</v>
+        <v>3353572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>5229</v>
@@ -3718,28 +3706,28 @@
         <v>3734584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>8553</v>
       </c>
       <c r="N14" s="7">
-        <v>7088155</v>
+        <v>7088156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,7 +3739,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3781,7 +3769,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66447674-71E4-4B4C-BD0C-E5A2FFCDAD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6574C943-F89F-499F-830A-3F26071C611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74B03062-0546-47F4-B895-587D03E64290}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{360EBE6E-1A20-47D2-9FDD-1F8B2390B575}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="114">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,166 +227,160 @@
     <t>Población mayor de 65 años con alguna caída en el último año en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
 </sst>
 </file>
@@ -798,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9867A29F-45F8-44D0-ABDC-41AA3AB27B2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196DBF4A-4FAC-4A4A-9F72-8B90B6B78301}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1000,7 +994,7 @@
         <v>2329</v>
       </c>
       <c r="N5" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1051,7 +1045,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1125,7 +1119,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1176,7 +1170,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1435,7 +1429,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1450,7 +1444,7 @@
         <v>3297</v>
       </c>
       <c r="I14" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1465,7 +1459,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1486,7 +1480,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1501,7 +1495,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1516,7 +1510,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1549,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F630C8-FB36-41BD-AE5A-D35616E634C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525BDE4F-0830-4C92-80E9-72818FFB54DF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1736,7 +1730,7 @@
         <v>1247</v>
       </c>
       <c r="I5" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1787,7 +1781,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2061,7 +2055,7 @@
         <v>850</v>
       </c>
       <c r="N11" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -2112,7 +2106,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2300,7 +2294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B56FF4-F901-4DA9-B201-B214300B53AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619C7469-2988-4B05-A303-E9A88D93161B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,7 +2806,7 @@
         <v>1027</v>
       </c>
       <c r="N11" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -2863,7 +2857,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3051,7 +3045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B45982-BFEB-42A6-8C91-24822B6B3BE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7B4F0A-F035-46A2-A180-72FE01B358D0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3172,7 +3166,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>14912</v>
+        <v>14288</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>62</v>
@@ -3187,7 +3181,7 @@
         <v>101</v>
       </c>
       <c r="I4" s="7">
-        <v>53472</v>
+        <v>49099</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>65</v>
@@ -3202,7 +3196,7 @@
         <v>127</v>
       </c>
       <c r="N4" s="7">
-        <v>68384</v>
+        <v>63387</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>68</v>
@@ -3223,7 +3217,7 @@
         <v>665</v>
       </c>
       <c r="D5" s="7">
-        <v>526722</v>
+        <v>500650</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>71</v>
@@ -3238,7 +3232,7 @@
         <v>1326</v>
       </c>
       <c r="I5" s="7">
-        <v>782481</v>
+        <v>706409</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>74</v>
@@ -3253,7 +3247,7 @@
         <v>1991</v>
       </c>
       <c r="N5" s="7">
-        <v>1309202</v>
+        <v>1207059</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>77</v>
@@ -3274,7 +3268,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3289,7 +3283,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3304,7 +3298,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3327,13 +3321,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>6883</v>
+        <v>6542</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>81</v>
@@ -3342,13 +3336,13 @@
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>8988</v>
+        <v>8349</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>82</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>83</v>
@@ -3357,13 +3351,13 @@
         <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>15871</v>
+        <v>14890</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>81</v>
@@ -3378,46 +3372,46 @@
         <v>1981</v>
       </c>
       <c r="D8" s="7">
-        <v>2155139</v>
+        <v>2283785</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>2905</v>
       </c>
       <c r="I8" s="7">
-        <v>2240532</v>
+        <v>2229474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>4886</v>
       </c>
       <c r="N8" s="7">
-        <v>4395672</v>
+        <v>4513260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,7 +3423,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3444,7 +3438,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3459,7 +3453,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3482,46 +3476,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1328</v>
+        <v>1226</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>2316</v>
+        <v>2168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>3644</v>
+        <v>3394</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,37 +3527,37 @@
         <v>678</v>
       </c>
       <c r="D11" s="7">
-        <v>671711</v>
+        <v>645397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
       </c>
       <c r="I11" s="7">
-        <v>711570</v>
+        <v>658295</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>1676</v>
       </c>
       <c r="N11" s="7">
-        <v>1383282</v>
+        <v>1303692</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>96</v>
@@ -3584,7 +3578,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3599,7 +3593,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3614,7 +3608,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3637,46 +3631,46 @@
         <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>23123</v>
+        <v>22055</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
       </c>
       <c r="I13" s="7">
-        <v>64776</v>
+        <v>59616</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
       </c>
       <c r="N13" s="7">
-        <v>87899</v>
+        <v>81671</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,46 +3682,46 @@
         <v>3324</v>
       </c>
       <c r="D14" s="7">
-        <v>3353572</v>
+        <v>3429834</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>5229</v>
       </c>
       <c r="I14" s="7">
-        <v>3734584</v>
+        <v>3594178</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>8553</v>
       </c>
       <c r="N14" s="7">
-        <v>7088156</v>
+        <v>7024012</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3733,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3754,7 +3748,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3769,7 +3763,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
